--- a/northstar-main/src/main/resources/ContractDefinition.xlsx
+++ b/northstar-main/src/main/resources/ContractDefinition.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opso-worspace\northstar\northstar-main\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FDCF27-49D3-4BEF-9B10-4EC4387A53E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$101</definedName>
     <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$G$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$101</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="ContractDefinition" type="6" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="ContractDefinition" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="D:\workspace\northstar\northstar-main\src\main\resources\ContractDefinition.csv" comma="1">
       <textFields>
         <textField/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="218">
   <si>
     <t>class</t>
   </si>
@@ -672,19 +678,25 @@
   </si>
   <si>
     <t>US_STK_TT</t>
+  </si>
+  <si>
+    <t>SWAP</t>
+  </si>
+  <si>
+    <t>OKX</t>
+  </si>
+  <si>
+    <t>.+@.+@.+</t>
+  </si>
+  <si>
+    <t>欧易</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,345 +705,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1039,251 +727,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1292,68 +738,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1608,19 +1010,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -1631,7 +1033,7 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1834,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1854,7 +1256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1894,7 +1296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1914,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1934,7 +1336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1954,7 +1356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1974,7 +1376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +1396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +1416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2034,7 +1436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +1456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2074,7 +1476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2094,7 +1496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2114,7 +1516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +1536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +1556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2174,7 +1576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +1596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2214,7 +1616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +1636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2254,7 +1656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2274,7 +1676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2294,7 +1696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +1713,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +1733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2351,7 +1753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +1773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2391,7 +1793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +1813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2431,7 +1833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2451,7 +1853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2471,7 +1873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2491,7 +1893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +1913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2534,7 +1936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2554,7 +1956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2574,7 +1976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2594,7 +1996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2634,7 +2036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2654,7 +2056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2674,7 +2076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2694,7 +2096,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2714,7 +2116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2734,7 +2136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2754,7 +2156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2774,7 +2176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2794,7 +2196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2834,7 +2236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2854,7 +2256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2874,7 +2276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +2296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2914,7 +2316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +2336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2954,7 +2356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2974,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2994,7 +2396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3014,7 +2416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3034,7 +2436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3054,7 +2456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3074,7 +2476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3094,7 +2496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -3114,7 +2516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>164</v>
       </c>
@@ -3134,7 +2536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -3154,7 +2556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -3174,7 +2576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -3194,7 +2596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -3214,7 +2616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>170</v>
       </c>
@@ -3234,7 +2636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -3254,7 +2656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -3274,7 +2676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -3294,7 +2696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -3314,7 +2716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -3334,7 +2736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -3354,7 +2756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -3374,7 +2776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>164</v>
       </c>
@@ -3394,7 +2796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -3414,7 +2816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -3434,7 +2836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -3454,7 +2856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>164</v>
       </c>
@@ -3474,7 +2876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>164</v>
       </c>
@@ -3494,7 +2896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -3514,7 +2916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>164</v>
       </c>
@@ -3534,7 +2936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -3554,7 +2956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>164</v>
       </c>
@@ -3574,7 +2976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -3594,7 +2996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -3614,7 +3016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3631,7 +3033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3648,7 +3050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>198</v>
       </c>
@@ -3668,7 +3070,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>198</v>
       </c>
@@ -3688,7 +3090,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>198</v>
       </c>
@@ -3708,7 +3110,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>198</v>
       </c>
@@ -3728,8 +3130,22 @@
         <v>213</v>
       </c>
     </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/northstar-main/src/main/resources/ContractDefinition.xlsx
+++ b/northstar-main/src/main/resources/ContractDefinition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opso-worspace\northstar\northstar-main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FDCF27-49D3-4BEF-9B10-4EC4387A53E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C48D55D-F0AF-4D18-9928-4705B9DB5973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,17 +686,18 @@
     <t>OKX</t>
   </si>
   <si>
-    <t>.+@.+@.+</t>
-  </si>
-  <si>
     <t>欧易</t>
+  </si>
+  <si>
+    <t>.+@.+@.+@.+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,6 +707,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -728,18 +737,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1019,7 +1035,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3137,15 +3153,18 @@
       <c r="B106" t="s">
         <v>215</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D106" t="s">
         <v>216</v>
-      </c>
-      <c r="D106" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C106" r:id="rId1" xr:uid="{4DBC2299-9342-46AB-8596-C6B6191418C4}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>